--- a/biology/Botanique/Forêt_de_Mare_Longue/Forêt_de_Mare_Longue.xlsx
+++ b/biology/Botanique/Forêt_de_Mare_Longue/Forêt_de_Mare_Longue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mare_Longue</t>
+          <t>Forêt_de_Mare_Longue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Mare Longue est une forêt des Hauts du sud-est de l'île de La Réunion, département d'outre-mer français dans l'océan Indien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mare_Longue</t>
+          <t>Forêt_de_Mare_Longue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Située sur le territoire communal de Saint-Philippe, au-dessus du village de Mare Longue, cette forêt abrite une réserve naturelle de 68 hectares riche en bois de couleur et autres essences endémiques de l'île. Elle fait partie du massif forestier de la Coloraie du Volcan. 
 Le reste de la forêt a été classé en réserve biologique. Elle est située en partie dans le parc national de La Réunion et entièrement parmi les pitons, cirques et remparts de l'île de La Réunion, un bien du patrimoine mondial.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Mare_Longue</t>
+          <t>Forêt_de_Mare_Longue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Réserve naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve naturelle de Saint-Philippe Mare-Longue se situe entre 150 et 700 mètres d’altitude sur les basses pentes du massif du Piton de la Fournaise, volcan actif de l’île.
 Implantée sur une coulée volcanique relativement récente (entre 300 et 400 ans), elle abrite l’un des ultimes vestiges de la forêt tropicale humide de basse altitude des Mascareignes, localement appelée forêt de « bois de couleurs des Bas ». Cette formation végétale couvrait autrefois toute la région au Vent de 0 à 800 mètres d’altitude mais ne subsiste aujourd’hui qu'à l'état de lambeaux, sur moins de 5 % de sa surface d'origine.
